--- a/server/shell/1501.xlsx
+++ b/server/shell/1501.xlsx
@@ -46,334 +46,334 @@
     <t>孙益彬</t>
   </si>
   <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>04142014</t>
+  </si>
+  <si>
+    <t>许仕宗</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>04142021</t>
+  </si>
+  <si>
+    <t>李凡</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>缺考</t>
+  </si>
+  <si>
+    <t>04142026</t>
+  </si>
+  <si>
+    <t>问家琛</t>
+  </si>
+  <si>
+    <t>04142029</t>
+  </si>
+  <si>
+    <t>王博峻</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>04152001</t>
+  </si>
+  <si>
+    <t>徐远东</t>
+  </si>
+  <si>
     <t>90</t>
   </si>
   <si>
-    <t>78</t>
+    <t>84</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>04152002</t>
+  </si>
+  <si>
+    <t>陈家兴</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>04152003</t>
+  </si>
+  <si>
+    <t>伍豪帆</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>04152004</t>
+  </si>
+  <si>
+    <t>王作栋</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>04152005</t>
+  </si>
+  <si>
+    <t>闫勇超</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>04152006</t>
+  </si>
+  <si>
+    <t>张豫</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>04152007</t>
+  </si>
+  <si>
+    <t>祝文斌</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>04152008</t>
+  </si>
+  <si>
+    <t>张子涵</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>04152009</t>
+  </si>
+  <si>
+    <t>王晨锡</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>04152010</t>
+  </si>
+  <si>
+    <t>乔丁</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>04152011</t>
+  </si>
+  <si>
+    <t>施宇轩</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>04152012</t>
+  </si>
+  <si>
+    <t>杨尚捷</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>04152013</t>
+  </si>
+  <si>
+    <t>刘树彬</t>
+  </si>
+  <si>
+    <t>04152014</t>
+  </si>
+  <si>
+    <t>丹炳阳</t>
+  </si>
+  <si>
+    <t>04152015</t>
+  </si>
+  <si>
+    <t>余飞</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>04152016</t>
+  </si>
+  <si>
+    <t>许迪开</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>04152017</t>
+  </si>
+  <si>
+    <t>张东阳</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>04152018</t>
+  </si>
+  <si>
+    <t>杨浩博</t>
+  </si>
+  <si>
+    <t>04152019</t>
+  </si>
+  <si>
+    <t>蒙祺殷</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>04152020</t>
+  </si>
+  <si>
+    <t>毛潇一</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>04152021</t>
+  </si>
+  <si>
+    <t>边晓萱</t>
+  </si>
+  <si>
+    <t>04152022</t>
+  </si>
+  <si>
+    <t>陈洁</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>04152023</t>
+  </si>
+  <si>
+    <t>权佳佳</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>04152024</t>
+  </si>
+  <si>
+    <t>张红艳</t>
+  </si>
+  <si>
+    <t>04152025</t>
+  </si>
+  <si>
+    <t>董学花</t>
+  </si>
+  <si>
+    <t>04152026</t>
+  </si>
+  <si>
+    <t>刘家盼</t>
+  </si>
+  <si>
+    <t>04152027</t>
+  </si>
+  <si>
+    <t>刘静文</t>
+  </si>
+  <si>
+    <t>04152028</t>
+  </si>
+  <si>
+    <t>田昺瑶</t>
   </si>
   <si>
     <t>82</t>
-  </si>
-  <si>
-    <t>04142014</t>
-  </si>
-  <si>
-    <t>许仕宗</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>04142021</t>
-  </si>
-  <si>
-    <t>李凡</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>缺考</t>
-  </si>
-  <si>
-    <t>04142026</t>
-  </si>
-  <si>
-    <t>问家琛</t>
-  </si>
-  <si>
-    <t>04142029</t>
-  </si>
-  <si>
-    <t>王博峻</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>04152001</t>
-  </si>
-  <si>
-    <t>徐远东</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>04152002</t>
-  </si>
-  <si>
-    <t>陈家兴</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>04152003</t>
-  </si>
-  <si>
-    <t>伍豪帆</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>04152004</t>
-  </si>
-  <si>
-    <t>王作栋</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>04152005</t>
-  </si>
-  <si>
-    <t>闫勇超</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>04152006</t>
-  </si>
-  <si>
-    <t>张豫</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>04152007</t>
-  </si>
-  <si>
-    <t>祝文斌</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>04152008</t>
-  </si>
-  <si>
-    <t>张子涵</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>04152009</t>
-  </si>
-  <si>
-    <t>王晨锡</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>04152010</t>
-  </si>
-  <si>
-    <t>乔丁</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>04152011</t>
-  </si>
-  <si>
-    <t>施宇轩</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>04152012</t>
-  </si>
-  <si>
-    <t>杨尚捷</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>04152013</t>
-  </si>
-  <si>
-    <t>刘树彬</t>
-  </si>
-  <si>
-    <t>04152014</t>
-  </si>
-  <si>
-    <t>丹炳阳</t>
-  </si>
-  <si>
-    <t>04152015</t>
-  </si>
-  <si>
-    <t>余飞</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>04152016</t>
-  </si>
-  <si>
-    <t>许迪开</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>04152017</t>
-  </si>
-  <si>
-    <t>张东阳</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>04152018</t>
-  </si>
-  <si>
-    <t>杨浩博</t>
-  </si>
-  <si>
-    <t>04152019</t>
-  </si>
-  <si>
-    <t>蒙祺殷</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>04152020</t>
-  </si>
-  <si>
-    <t>毛潇一</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>04152021</t>
-  </si>
-  <si>
-    <t>边晓萱</t>
-  </si>
-  <si>
-    <t>04152022</t>
-  </si>
-  <si>
-    <t>陈洁</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>04152023</t>
-  </si>
-  <si>
-    <t>权佳佳</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>04152024</t>
-  </si>
-  <si>
-    <t>张红艳</t>
-  </si>
-  <si>
-    <t>04152025</t>
-  </si>
-  <si>
-    <t>董学花</t>
-  </si>
-  <si>
-    <t>04152026</t>
-  </si>
-  <si>
-    <t>刘家盼</t>
-  </si>
-  <si>
-    <t>04152027</t>
-  </si>
-  <si>
-    <t>刘静文</t>
-  </si>
-  <si>
-    <t>04152028</t>
-  </si>
-  <si>
-    <t>田昺瑶</t>
   </si>
   <si>
     <t>04152029</t>
@@ -426,10 +426,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -461,8 +461,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -478,7 +499,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,28 +566,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -521,46 +573,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,21 +588,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -604,6 +604,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -616,25 +676,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,25 +694,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,7 +748,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,97 +772,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,23 +834,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,26 +864,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -904,141 +878,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1069,9 +1069,6 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1392,7 +1389,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1430,153 +1427,153 @@
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
+      <c r="C2" s="2">
+        <v>60</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
+      <c r="C3" s="2">
+        <v>100</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="5" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>40</v>
@@ -1611,7 +1608,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1631,7 +1628,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1671,7 +1668,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1691,7 +1688,7 @@
         <v>63</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1711,7 +1708,7 @@
         <v>67</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1771,7 +1768,7 @@
         <v>80</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1779,7 +1776,7 @@
         <v>49</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -1791,12 +1788,12 @@
         <v>82</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="5" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>53</v>
@@ -1839,7 +1836,7 @@
         <v>78</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -1851,7 +1848,7 @@
         <v>90</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1871,7 +1868,7 @@
         <v>93</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1919,19 +1916,19 @@
         <v>100</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="C27" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1945,18 +1942,18 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="C28" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>76</v>
@@ -1965,18 +1962,18 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>76</v>
@@ -1985,13 +1982,13 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="C30" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2005,10 +2002,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>88</v>
@@ -2016,27 +2013,27 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="5" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="C32" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>76</v>
@@ -2045,13 +2042,13 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="C33" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -2065,13 +2062,13 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="C34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2079,7 +2076,7 @@
         <v>64</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -2099,7 +2096,7 @@
         <v>48</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -2111,7 +2108,7 @@
         <v>123</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -2151,7 +2148,7 @@
         <v>129</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2159,7 +2156,7 @@
         <v>40</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -2171,15 +2168,15 @@
         <v>131</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -2191,7 +2188,7 @@
         <v>133</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
